--- a/scripts/data/forge_config_Table.xlsx
+++ b/scripts/data/forge_config_Table.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32AFA75A-DC1A-4F71-A724-2B4BA33D30A4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,8 +34,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>材料列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1</t>
+      <t>1006</t>
     </r>
     <r>
       <rPr>
@@ -45,12 +50,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>001;1002</t>
+      <t>;1008</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>材料列表</t>
+    <t>1006;1007;1008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008;1009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006;1009</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +402,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -411,30 +424,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/forge_config_Table.xlsx
+++ b/scripts/data/forge_config_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32AFA75A-DC1A-4F71-A724-2B4BA33D30A4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27CE4067-2EDD-4420-A742-B82FABB1F045}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
